--- a/Bank/中医内科学/肺/Bank_肺痨.xlsx
+++ b/Bank/中医内科学/肺/Bank_肺痨.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/肺/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="170">
   <si>
     <t>下列除哪项外，均为肺痨的证候特征</t>
   </si>
@@ -523,12 +534,18 @@
   </si>
   <si>
     <t>诊断：肺痨（肺阴亏虚）。病证分析：患者具有咳嗽、咯血、潮热、盗汗等肺痨主症， X线检査为浸润性肺结核，故诊断肺痨成立。痨虫蚀肺，肺失宜肃，故咳嗽；肺伤络则 咯血；午后手足心热，皮肤干灼，证实阴虚则内热；盗汗反映阴虚阳盛，逼津外泄；舌边尖红，脉细数，为阴虚之舌脉征，结合咳嗽、咯血等症，故辨证肺阴亏虚证成立。治法：滋阴润肺，杀虫抗痨。方药：月华丸加减。北沙参20g麦冬15g天冬10g生 地10g百合15g百部15g地骨皮15g 川贝母10g茯苓10g山药15g阿胶 10g(烊化)三七6g白及10g甘草3g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -842,13 +859,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -900,7 +917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -926,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -952,7 +969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>24</v>
       </c>
@@ -978,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -1004,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>35</v>
       </c>
@@ -1030,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>40</v>
       </c>
@@ -1056,7 +1073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -1108,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>52</v>
       </c>
@@ -1134,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>55</v>
       </c>
@@ -1160,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>56</v>
       </c>
@@ -1186,7 +1203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>60</v>
       </c>
@@ -1212,7 +1229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>65</v>
       </c>
@@ -1238,7 +1255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>70</v>
       </c>
@@ -1254,6 +1271,9 @@
       <c r="F16" t="s">
         <v>72</v>
       </c>
+      <c r="G16">
+        <v>42</v>
+      </c>
       <c r="H16" t="s">
         <v>5</v>
       </c>
@@ -1264,7 +1284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>73</v>
       </c>
@@ -1280,6 +1300,9 @@
       <c r="F17" t="s">
         <v>69</v>
       </c>
+      <c r="G17">
+        <v>42</v>
+      </c>
       <c r="H17" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>75</v>
       </c>
@@ -1306,6 +1329,9 @@
       <c r="F18" t="s">
         <v>78</v>
       </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
       <c r="H18" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>79</v>
       </c>
@@ -1332,6 +1358,9 @@
       <c r="F19" t="s">
         <v>83</v>
       </c>
+      <c r="G19">
+        <v>42</v>
+      </c>
       <c r="H19" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>84</v>
       </c>
@@ -1358,6 +1387,9 @@
       <c r="F20" t="s">
         <v>88</v>
       </c>
+      <c r="G20">
+        <v>42</v>
+      </c>
       <c r="H20" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -1384,6 +1416,9 @@
       <c r="F21" t="s">
         <v>78</v>
       </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
       <c r="H21" t="s">
         <v>138</v>
       </c>
@@ -1397,7 +1432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>96</v>
       </c>
@@ -1413,6 +1448,9 @@
       <c r="F22" t="s">
         <v>94</v>
       </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
       <c r="H22" t="s">
         <v>138</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>98</v>
       </c>
@@ -1442,6 +1480,9 @@
       <c r="F23" t="s">
         <v>102</v>
       </c>
+      <c r="G23">
+        <v>42</v>
+      </c>
       <c r="H23" t="s">
         <v>138</v>
       </c>
@@ -1455,7 +1496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>104</v>
       </c>
@@ -1471,6 +1512,9 @@
       <c r="F24" t="s">
         <v>108</v>
       </c>
+      <c r="G24">
+        <v>42</v>
+      </c>
       <c r="H24" t="s">
         <v>138</v>
       </c>
@@ -1484,7 +1528,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>110</v>
       </c>
@@ -1500,6 +1544,9 @@
       <c r="F25" t="s">
         <v>114</v>
       </c>
+      <c r="G25">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
         <v>138</v>
       </c>
@@ -1513,7 +1560,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>117</v>
       </c>
@@ -1529,6 +1576,9 @@
       <c r="F26" t="s">
         <v>121</v>
       </c>
+      <c r="G26">
+        <v>42</v>
+      </c>
       <c r="H26" t="s">
         <v>138</v>
       </c>
@@ -1542,7 +1592,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>123</v>
       </c>
@@ -1558,6 +1608,9 @@
       <c r="F27" t="s">
         <v>127</v>
       </c>
+      <c r="G27">
+        <v>42</v>
+      </c>
       <c r="H27" t="s">
         <v>138</v>
       </c>
@@ -1571,7 +1624,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>130</v>
       </c>
@@ -1587,6 +1640,9 @@
       <c r="F28" t="s">
         <v>2</v>
       </c>
+      <c r="G28">
+        <v>42</v>
+      </c>
       <c r="H28" t="s">
         <v>138</v>
       </c>
@@ -1600,7 +1656,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>132</v>
       </c>
@@ -1616,6 +1672,9 @@
       <c r="F29" t="s">
         <v>50</v>
       </c>
+      <c r="G29">
+        <v>42</v>
+      </c>
       <c r="H29" t="s">
         <v>138</v>
       </c>
@@ -1629,7 +1688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>133</v>
       </c>
@@ -1645,6 +1704,9 @@
       <c r="F30" t="s">
         <v>136</v>
       </c>
+      <c r="G30">
+        <v>42</v>
+      </c>
       <c r="H30" t="s">
         <v>138</v>
       </c>
@@ -1658,12 +1720,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>137</v>
       </c>
+      <c r="G31">
+        <v>42</v>
+      </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1672,12 +1737,15 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>146</v>
       </c>
+      <c r="G32">
+        <v>42</v>
+      </c>
       <c r="H32" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1686,12 +1754,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>147</v>
       </c>
+      <c r="G33">
+        <v>42</v>
+      </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1700,10 +1771,13 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>148</v>
       </c>
+      <c r="G34">
+        <v>42</v>
+      </c>
       <c r="H34" t="s">
         <v>156</v>
       </c>
@@ -1714,10 +1788,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>149</v>
       </c>
+      <c r="G35">
+        <v>42</v>
+      </c>
       <c r="H35" t="s">
         <v>156</v>
       </c>
@@ -1728,10 +1805,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>161</v>
       </c>
+      <c r="G36">
+        <v>42</v>
+      </c>
       <c r="H36" t="s">
         <v>156</v>
       </c>
@@ -1742,10 +1822,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>150</v>
       </c>
+      <c r="G37">
+        <v>42</v>
+      </c>
       <c r="H37" t="s">
         <v>156</v>
       </c>
@@ -1756,10 +1839,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>151</v>
       </c>
+      <c r="G38">
+        <v>42</v>
+      </c>
       <c r="H38" t="s">
         <v>156</v>
       </c>
@@ -1770,10 +1856,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>152</v>
       </c>
+      <c r="G39">
+        <v>42</v>
+      </c>
       <c r="H39" t="s">
         <v>156</v>
       </c>
@@ -1784,10 +1873,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>153</v>
       </c>
+      <c r="G40">
+        <v>42</v>
+      </c>
       <c r="H40" t="s">
         <v>156</v>
       </c>
@@ -1798,12 +1890,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>154</v>
       </c>
+      <c r="G41">
+        <v>42</v>
+      </c>
       <c r="H41" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J41">
         <v>1</v>
